--- a/data/trans_bre/P1423-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P1423-Edad-trans_bre.xlsx
@@ -637,7 +637,7 @@
         <v>2.01681125031433</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>3.028364215086895</v>
+        <v>3.028364215086894</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>12.12299521600881</v>
@@ -649,7 +649,7 @@
         <v>1.926237602433034</v>
       </c>
       <c r="J4" s="6" t="n">
-        <v>1.198073482251757</v>
+        <v>1.198073482251756</v>
       </c>
     </row>
     <row r="5">
@@ -660,26 +660,26 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>1.154144406713162</v>
+        <v>1.070902990257214</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-0.5444944459002065</v>
+        <v>-0.4588853765328528</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-0.007699282131795277</v>
+        <v>0.304295380764092</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-0.714671426466707</v>
+        <v>-0.8119466677079766</v>
       </c>
       <c r="G5" s="6" t="inlineStr"/>
       <c r="H5" s="6" t="n">
-        <v>-0.6275330504383617</v>
+        <v>-0.6072811270870374</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>-0.1901322847244163</v>
+        <v>-0.0731322931257388</v>
       </c>
       <c r="J5" s="6" t="n">
-        <v>-0.3654746418429288</v>
+        <v>-0.3310748204207448</v>
       </c>
     </row>
     <row r="6">
@@ -690,26 +690,26 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>4.080726810849191</v>
+        <v>4.015949726577525</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>2.47923955924706</v>
+        <v>2.445507582729153</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>4.342784425983213</v>
+        <v>4.253692469156405</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>7.133411422090052</v>
+        <v>7.686181355946864</v>
       </c>
       <c r="G6" s="6" t="inlineStr"/>
       <c r="H6" s="6" t="n">
-        <v>5.926646556606159</v>
+        <v>8.758616742192791</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>11.21176584539404</v>
+        <v>9.793153129352989</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>5.899139059002336</v>
+        <v>7.207210867962469</v>
       </c>
     </row>
     <row r="7">
@@ -756,28 +756,28 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.004779176303141155</v>
+        <v>0.03414140073643478</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>-0.7418916529293905</v>
+        <v>-0.8935924820853031</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>-0.1551874729907732</v>
+        <v>-0.2197355228571574</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>1.024010391764925</v>
+        <v>1.083679765780896</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.05124835374827356</v>
+        <v>-0.03978304310048961</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.2166975126590014</v>
+        <v>-0.2667756885166053</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.1518149718909548</v>
+        <v>-0.2645639196307177</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>0.1456509190889103</v>
+        <v>0.1530081180844706</v>
       </c>
     </row>
     <row r="9">
@@ -788,28 +788,28 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>3.595136287517413</v>
+        <v>3.525529247290656</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>3.656794370586065</v>
+        <v>3.457504573652986</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>2.941942736597337</v>
+        <v>2.810592589359175</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>7.231388610233615</v>
+        <v>7.441136115108361</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>2.876104996653721</v>
+        <v>2.86849993333083</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>1.724029566720054</v>
+        <v>1.615261879324148</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>5.262427153762592</v>
+        <v>4.991224170941453</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>4.018391079052553</v>
+        <v>3.967877407887499</v>
       </c>
     </row>
     <row r="10">
@@ -856,28 +856,28 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.6514267403173487</v>
+        <v>0.3932904821631955</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>2.957322753668197</v>
+        <v>3.303428060016734</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>2.28973646392879</v>
+        <v>1.937887375030897</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-0.5193173419740037</v>
+        <v>-0.3172325681930527</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.1354836906080167</v>
+        <v>0.04461861147333966</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.5460145592215599</v>
+        <v>0.5975196189138822</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.5868594431540123</v>
+        <v>0.4914273538247445</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>-0.07758000465197872</v>
+        <v>-0.07499077890422731</v>
       </c>
     </row>
     <row r="12">
@@ -888,28 +888,28 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>5.024477417527358</v>
+        <v>5.268759176604926</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>8.61946532497981</v>
+        <v>8.819180269916901</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>6.470416902295725</v>
+        <v>6.545048403977799</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>5.124279903128125</v>
+        <v>5.071694059841722</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>2.488820514561579</v>
+        <v>2.398232093225107</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>3.182022984176154</v>
+        <v>3.346075313903769</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>4.043275357210531</v>
+        <v>3.94300831819326</v>
       </c>
       <c r="J12" s="6" t="n">
-        <v>1.412154216764998</v>
+        <v>1.251483845819408</v>
       </c>
     </row>
     <row r="13">
@@ -933,7 +933,7 @@
         <v>7.672212398138792</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>5.60751763329068</v>
+        <v>5.607517633290679</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>2.731653553293871</v>
@@ -956,28 +956,28 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>5.184852294813588</v>
+        <v>5.154994652078947</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>4.763175793434341</v>
+        <v>4.515157179718295</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>4.680147099513256</v>
+        <v>4.680548716630739</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>2.716637447701655</v>
+        <v>2.473048025100379</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>1.184536217205843</v>
+        <v>1.085999933185232</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.8234867635270482</v>
+        <v>0.7452057821105198</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.942511001453367</v>
+        <v>0.875413266621572</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>0.2881141366269142</v>
+        <v>0.244009526071223</v>
       </c>
     </row>
     <row r="15">
@@ -988,28 +988,28 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>11.2793491003441</v>
+        <v>11.25038317632108</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>11.04403267415442</v>
+        <v>11.04179757279523</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>10.73350756755795</v>
+        <v>10.75077631755154</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>8.235048958489289</v>
+        <v>8.46715614338504</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>5.573020196577744</v>
+        <v>6.048298278056771</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>3.377944944125128</v>
+        <v>3.411785986476755</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>3.688449340649535</v>
+        <v>3.699324444923986</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>1.321436715087635</v>
+        <v>1.414710708051742</v>
       </c>
     </row>
     <row r="16">
@@ -1033,7 +1033,7 @@
         <v>11.20512395627371</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>8.440698583637946</v>
+        <v>8.44069858363795</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>1.300206209678417</v>
@@ -1045,7 +1045,7 @@
         <v>1.690451238801415</v>
       </c>
       <c r="J16" s="6" t="n">
-        <v>0.9226730015464812</v>
+        <v>0.9226730015464815</v>
       </c>
     </row>
     <row r="17">
@@ -1056,28 +1056,28 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>3.229492641321129</v>
+        <v>3.275939257843678</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>6.922798444227442</v>
+        <v>6.628713358306506</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>6.821861928461239</v>
+        <v>6.843797953320387</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>5.090505810509979</v>
+        <v>4.657533407408422</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.388549520752285</v>
+        <v>0.4117079325881262</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.7763089579357745</v>
+        <v>0.6690732209204306</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.7061886395999012</v>
+        <v>0.7777276460384479</v>
       </c>
       <c r="J17" s="6" t="n">
-        <v>0.4553148607956879</v>
+        <v>0.4254881381562046</v>
       </c>
     </row>
     <row r="18">
@@ -1088,28 +1088,28 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>11.46182433805705</v>
+        <v>11.42104497376292</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>15.75793562284949</v>
+        <v>15.62660155028081</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>15.3546066204348</v>
+        <v>15.62054806658115</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>11.64163686738695</v>
+        <v>11.4233040034684</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>2.650176207159478</v>
+        <v>2.712267130163621</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>3.10721711133089</v>
+        <v>2.877037873569055</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>3.11457003396727</v>
+        <v>3.22877572592727</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>1.543362123876981</v>
+        <v>1.582503582272125</v>
       </c>
     </row>
     <row r="19">
@@ -1145,7 +1145,7 @@
         <v>4.984898546003952</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>2.502781388083019</v>
+        <v>2.502781388083018</v>
       </c>
     </row>
     <row r="20">
@@ -1156,28 +1156,28 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>2.525598419471526</v>
+        <v>2.461976158132869</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>9.315863351807986</v>
+        <v>9.209800619270295</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>10.13212785124143</v>
+        <v>10.19924911924812</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>8.245776142078899</v>
+        <v>8.069008992513437</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.2829574564001893</v>
+        <v>0.3079932614894053</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>1.07177336531237</v>
+        <v>1.033533217672572</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>2.282040548562612</v>
+        <v>2.24796636379117</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>1.309986597201538</v>
+        <v>1.318235573870465</v>
       </c>
     </row>
     <row r="21">
@@ -1188,28 +1188,28 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>10.88448524530116</v>
+        <v>10.5975676879955</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>19.11667260681996</v>
+        <v>19.46500191782677</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>19.2600998322302</v>
+        <v>19.39745180519542</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>14.58575969473596</v>
+        <v>14.36765547362651</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>2.954822907084027</v>
+        <v>3.059904932712421</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>5.742685966547585</v>
+        <v>5.324754298312802</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>11.35576078791177</v>
+        <v>12.51157426995992</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>4.375569675983674</v>
+        <v>4.468438232798948</v>
       </c>
     </row>
     <row r="22">
@@ -1233,7 +1233,7 @@
         <v>9.149211915859457</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>7.385321903281164</v>
+        <v>7.385321903281159</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.3853589715896152</v>
@@ -1245,7 +1245,7 @@
         <v>1.524589248578866</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>0.8175550028891838</v>
+        <v>0.8175550028891835</v>
       </c>
     </row>
     <row r="23">
@@ -1256,28 +1256,28 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-2.164905149011661</v>
+        <v>-2.157483057066327</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>7.011020751140753</v>
+        <v>6.091143077746589</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>4.190187616805717</v>
+        <v>4.353471523608869</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>3.528063815934629</v>
+        <v>3.818729233621847</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>-0.2445394699786039</v>
+        <v>-0.2376932234871078</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.6666948481559066</v>
+        <v>0.5159831022297319</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.4892299002931561</v>
+        <v>0.524159933229864</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>0.2979320367341052</v>
+        <v>0.3249207635811012</v>
       </c>
     </row>
     <row r="24">
@@ -1288,28 +1288,28 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>7.419996714777996</v>
+        <v>7.595840960420721</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>17.61441706581792</v>
+        <v>17.49157068466501</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>13.91801739937227</v>
+        <v>14.07147874936737</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>11.22372818979649</v>
+        <v>11.05450236310079</v>
       </c>
       <c r="G24" s="6" t="n">
-        <v>1.696172707917265</v>
+        <v>1.665294765772138</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>4.085201413329243</v>
+        <v>4.031399687731224</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>3.313740024860254</v>
+        <v>3.387410495530787</v>
       </c>
       <c r="J24" s="6" t="n">
-        <v>1.556552113684249</v>
+        <v>1.629057623699582</v>
       </c>
     </row>
     <row r="25">
@@ -1333,7 +1333,7 @@
         <v>6.932724168556037</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>6.132113440257629</v>
+        <v>6.132113440257628</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>1.459322715576148</v>
@@ -1356,28 +1356,28 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>3.423897257326848</v>
+        <v>3.444662043215715</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>5.967217358922662</v>
+        <v>5.996568367869386</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>5.693724106743689</v>
+        <v>5.71028714408346</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>4.910026031424239</v>
+        <v>4.874047647275241</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>0.9453529759130482</v>
+        <v>0.926760299679533</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>1.254886956591919</v>
+        <v>1.260581245896257</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>1.497282484353562</v>
+        <v>1.493516220809978</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>0.7297207013674261</v>
+        <v>0.7069497115613291</v>
       </c>
     </row>
     <row r="27">
@@ -1388,28 +1388,28 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>5.613731949516527</v>
+        <v>5.650467788534503</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>8.619900124491782</v>
+        <v>8.625514379020448</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>8.155946505489197</v>
+        <v>8.311237607759782</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>7.315831946113138</v>
+        <v>7.433815002297614</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>2.071105244030165</v>
+        <v>2.066848058208211</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>2.338577183958378</v>
+        <v>2.355582882126471</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>2.907520221978318</v>
+        <v>2.942916576435255</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>1.346211538444257</v>
+        <v>1.372439730399338</v>
       </c>
     </row>
     <row r="28">
